--- a/TestData/excelData.xlsx
+++ b/TestData/excelData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samee\Work\Projects\Team14_Selenium_Samurai_LMS_Feb2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samee\Work\Projects\Team14_Selenium_Samurai_LMS_Feb2025\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF83A9A3-E797-468A-847D-3F775435A618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E57F444-886A-4C64-95D8-95CA31406F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2198BB61-55EA-408D-B3CF-1475E78217FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2198BB61-55EA-408D-B3CF-1475E78217FD}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>sdetnumpyninja@gmail.com</t>
   </si>
@@ -72,12 +72,45 @@
   <si>
     <t>You are logged in</t>
   </si>
+  <si>
+    <t>https://feb-ui-hackathon-bbfd38d67ea9.herokuapp.com/</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>https://febbbb-ui-hackathon-bbfd38d67ea9.herokuappp.com/</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>Feb@2022</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,16 +132,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,12 +184,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -145,9 +211,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -483,187 +552,3866 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C80ED2E-AA63-4AC9-BD7E-7D4B9BDB8A53}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:AF115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.36328125" customWidth="1"/>
-    <col min="2" max="2" width="26.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="57.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="26.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+      <c r="AE31"/>
+      <c r="AF31"/>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+      <c r="AE32"/>
+      <c r="AF32"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+      <c r="AE33"/>
+      <c r="AF33"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+      <c r="AE40"/>
+      <c r="AF40"/>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+      <c r="AE41"/>
+      <c r="AF41"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+      <c r="AE42"/>
+      <c r="AF42"/>
+    </row>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43"/>
+      <c r="AF43"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44"/>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
+      <c r="AF47"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48"/>
+      <c r="AF48"/>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+      <c r="AE52"/>
+      <c r="AF52"/>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+      <c r="AE53"/>
+      <c r="AF53"/>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AE54"/>
+      <c r="AF54"/>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+      <c r="AE55"/>
+      <c r="AF55"/>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A56" s="7"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56"/>
+      <c r="AF56"/>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A58" s="7"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+      <c r="AE58"/>
+      <c r="AF58"/>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A59" s="7"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
+      <c r="AF59"/>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+      <c r="AE60"/>
+      <c r="AF60"/>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+      <c r="AE61"/>
+      <c r="AF61"/>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A62" s="7"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+      <c r="AE62"/>
+      <c r="AF62"/>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A63" s="7"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
+      <c r="AF63"/>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A64" s="7"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+      <c r="AE64"/>
+      <c r="AF64"/>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A65" s="7"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+      <c r="AE65"/>
+      <c r="AF65"/>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+      <c r="AE66"/>
+      <c r="AF66"/>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+      <c r="AE67"/>
+      <c r="AF67"/>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68"/>
+      <c r="AE68"/>
+      <c r="AF68"/>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+      <c r="AE69"/>
+      <c r="AF69"/>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AD70"/>
+      <c r="AE70"/>
+      <c r="AF70"/>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+      <c r="AE71"/>
+      <c r="AF71"/>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+      <c r="AE72"/>
+      <c r="AF72"/>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A73" s="7"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
+      <c r="AE73"/>
+      <c r="AF73"/>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A74" s="7"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+      <c r="AE74"/>
+      <c r="AF74"/>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A75" s="7"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+      <c r="Y75"/>
+      <c r="Z75"/>
+      <c r="AA75"/>
+      <c r="AB75"/>
+      <c r="AC75"/>
+      <c r="AD75"/>
+      <c r="AE75"/>
+      <c r="AF75"/>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A76" s="7"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+      <c r="Y76"/>
+      <c r="Z76"/>
+      <c r="AA76"/>
+      <c r="AB76"/>
+      <c r="AC76"/>
+      <c r="AD76"/>
+      <c r="AE76"/>
+      <c r="AF76"/>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A77" s="7"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+      <c r="Y77"/>
+      <c r="Z77"/>
+      <c r="AA77"/>
+      <c r="AB77"/>
+      <c r="AC77"/>
+      <c r="AD77"/>
+      <c r="AE77"/>
+      <c r="AF77"/>
+    </row>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A78" s="7"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+      <c r="AE78"/>
+      <c r="AF78"/>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A79" s="7"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+      <c r="AE79"/>
+      <c r="AF79"/>
+    </row>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A80" s="7"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+      <c r="AE80"/>
+      <c r="AF80"/>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A81" s="7"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+      <c r="AE81"/>
+      <c r="AF81"/>
+    </row>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A82" s="7"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+      <c r="AE82"/>
+      <c r="AF82"/>
+    </row>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A83" s="7"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+      <c r="AE83"/>
+      <c r="AF83"/>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A84" s="7"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+      <c r="AE84"/>
+      <c r="AF84"/>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A85" s="7"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AD85"/>
+      <c r="AE85"/>
+      <c r="AF85"/>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A86" s="7"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+      <c r="AE86"/>
+      <c r="AF86"/>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+      <c r="X87"/>
+      <c r="Y87"/>
+      <c r="Z87"/>
+      <c r="AA87"/>
+      <c r="AB87"/>
+      <c r="AC87"/>
+      <c r="AD87"/>
+      <c r="AE87"/>
+      <c r="AF87"/>
+    </row>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A88" s="7"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88"/>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88"/>
+      <c r="W88"/>
+      <c r="X88"/>
+      <c r="Y88"/>
+      <c r="Z88"/>
+      <c r="AA88"/>
+      <c r="AB88"/>
+      <c r="AC88"/>
+      <c r="AD88"/>
+      <c r="AE88"/>
+      <c r="AF88"/>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A89" s="7"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89"/>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89"/>
+      <c r="V89"/>
+      <c r="W89"/>
+      <c r="X89"/>
+      <c r="Y89"/>
+      <c r="Z89"/>
+      <c r="AA89"/>
+      <c r="AB89"/>
+      <c r="AC89"/>
+      <c r="AD89"/>
+      <c r="AE89"/>
+      <c r="AF89"/>
+    </row>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A90" s="7"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
+      <c r="R90"/>
+      <c r="S90"/>
+      <c r="T90"/>
+      <c r="U90"/>
+      <c r="V90"/>
+      <c r="W90"/>
+      <c r="X90"/>
+      <c r="Y90"/>
+      <c r="Z90"/>
+      <c r="AA90"/>
+      <c r="AB90"/>
+      <c r="AC90"/>
+      <c r="AD90"/>
+      <c r="AE90"/>
+      <c r="AF90"/>
+    </row>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A91" s="7"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91"/>
+      <c r="S91"/>
+      <c r="T91"/>
+      <c r="U91"/>
+      <c r="V91"/>
+      <c r="W91"/>
+      <c r="X91"/>
+      <c r="Y91"/>
+      <c r="Z91"/>
+      <c r="AA91"/>
+      <c r="AB91"/>
+      <c r="AC91"/>
+      <c r="AD91"/>
+      <c r="AE91"/>
+      <c r="AF91"/>
+    </row>
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A92" s="7"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+      <c r="S92"/>
+      <c r="T92"/>
+      <c r="U92"/>
+      <c r="V92"/>
+      <c r="W92"/>
+      <c r="X92"/>
+      <c r="Y92"/>
+      <c r="Z92"/>
+      <c r="AA92"/>
+      <c r="AB92"/>
+      <c r="AC92"/>
+      <c r="AD92"/>
+      <c r="AE92"/>
+      <c r="AF92"/>
+    </row>
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A93" s="7"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93"/>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93"/>
+      <c r="V93"/>
+      <c r="W93"/>
+      <c r="X93"/>
+      <c r="Y93"/>
+      <c r="Z93"/>
+      <c r="AA93"/>
+      <c r="AB93"/>
+      <c r="AC93"/>
+      <c r="AD93"/>
+      <c r="AE93"/>
+      <c r="AF93"/>
+    </row>
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A94" s="7"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+      <c r="U94"/>
+      <c r="V94"/>
+      <c r="W94"/>
+      <c r="X94"/>
+      <c r="Y94"/>
+      <c r="Z94"/>
+      <c r="AA94"/>
+      <c r="AB94"/>
+      <c r="AC94"/>
+      <c r="AD94"/>
+      <c r="AE94"/>
+      <c r="AF94"/>
+    </row>
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A95" s="7"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95"/>
+      <c r="V95"/>
+      <c r="W95"/>
+      <c r="X95"/>
+      <c r="Y95"/>
+      <c r="Z95"/>
+      <c r="AA95"/>
+      <c r="AB95"/>
+      <c r="AC95"/>
+      <c r="AD95"/>
+      <c r="AE95"/>
+      <c r="AF95"/>
+    </row>
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A96" s="7"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96"/>
+      <c r="Q96"/>
+      <c r="R96"/>
+      <c r="S96"/>
+      <c r="T96"/>
+      <c r="U96"/>
+      <c r="V96"/>
+      <c r="W96"/>
+      <c r="X96"/>
+      <c r="Y96"/>
+      <c r="Z96"/>
+      <c r="AA96"/>
+      <c r="AB96"/>
+      <c r="AC96"/>
+      <c r="AD96"/>
+      <c r="AE96"/>
+      <c r="AF96"/>
+    </row>
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A97" s="7"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97"/>
+      <c r="S97"/>
+      <c r="T97"/>
+      <c r="U97"/>
+      <c r="V97"/>
+      <c r="W97"/>
+      <c r="X97"/>
+      <c r="Y97"/>
+      <c r="Z97"/>
+      <c r="AA97"/>
+      <c r="AB97"/>
+      <c r="AC97"/>
+      <c r="AD97"/>
+      <c r="AE97"/>
+      <c r="AF97"/>
+    </row>
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A98" s="7"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98"/>
+      <c r="S98"/>
+      <c r="T98"/>
+      <c r="U98"/>
+      <c r="V98"/>
+      <c r="W98"/>
+      <c r="X98"/>
+      <c r="Y98"/>
+      <c r="Z98"/>
+      <c r="AA98"/>
+      <c r="AB98"/>
+      <c r="AC98"/>
+      <c r="AD98"/>
+      <c r="AE98"/>
+      <c r="AF98"/>
+    </row>
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A99" s="7"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+      <c r="Q99"/>
+      <c r="R99"/>
+      <c r="S99"/>
+      <c r="T99"/>
+      <c r="U99"/>
+      <c r="V99"/>
+      <c r="W99"/>
+      <c r="X99"/>
+      <c r="Y99"/>
+      <c r="Z99"/>
+      <c r="AA99"/>
+      <c r="AB99"/>
+      <c r="AC99"/>
+      <c r="AD99"/>
+      <c r="AE99"/>
+      <c r="AF99"/>
+    </row>
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A100" s="7"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
+      <c r="R100"/>
+      <c r="S100"/>
+      <c r="T100"/>
+      <c r="U100"/>
+      <c r="V100"/>
+      <c r="W100"/>
+      <c r="X100"/>
+      <c r="Y100"/>
+      <c r="Z100"/>
+      <c r="AA100"/>
+      <c r="AB100"/>
+      <c r="AC100"/>
+      <c r="AD100"/>
+      <c r="AE100"/>
+      <c r="AF100"/>
+    </row>
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A101" s="7"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+      <c r="R101"/>
+      <c r="S101"/>
+      <c r="T101"/>
+      <c r="U101"/>
+      <c r="V101"/>
+      <c r="W101"/>
+      <c r="X101"/>
+      <c r="Y101"/>
+      <c r="Z101"/>
+      <c r="AA101"/>
+      <c r="AB101"/>
+      <c r="AC101"/>
+      <c r="AD101"/>
+      <c r="AE101"/>
+      <c r="AF101"/>
+    </row>
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A102" s="7"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102"/>
+      <c r="Q102"/>
+      <c r="R102"/>
+      <c r="S102"/>
+      <c r="T102"/>
+      <c r="U102"/>
+      <c r="V102"/>
+      <c r="W102"/>
+      <c r="X102"/>
+      <c r="Y102"/>
+      <c r="Z102"/>
+      <c r="AA102"/>
+      <c r="AB102"/>
+      <c r="AC102"/>
+      <c r="AD102"/>
+      <c r="AE102"/>
+      <c r="AF102"/>
+    </row>
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A103" s="7"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+      <c r="P103"/>
+      <c r="Q103"/>
+      <c r="R103"/>
+      <c r="S103"/>
+      <c r="T103"/>
+      <c r="U103"/>
+      <c r="V103"/>
+      <c r="W103"/>
+      <c r="X103"/>
+      <c r="Y103"/>
+      <c r="Z103"/>
+      <c r="AA103"/>
+      <c r="AB103"/>
+      <c r="AC103"/>
+      <c r="AD103"/>
+      <c r="AE103"/>
+      <c r="AF103"/>
+    </row>
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A104" s="7"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104"/>
+      <c r="Q104"/>
+      <c r="R104"/>
+      <c r="S104"/>
+      <c r="T104"/>
+      <c r="U104"/>
+      <c r="V104"/>
+      <c r="W104"/>
+      <c r="X104"/>
+      <c r="Y104"/>
+      <c r="Z104"/>
+      <c r="AA104"/>
+      <c r="AB104"/>
+      <c r="AC104"/>
+      <c r="AD104"/>
+      <c r="AE104"/>
+      <c r="AF104"/>
+    </row>
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A105" s="7"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
+      <c r="R105"/>
+      <c r="S105"/>
+      <c r="T105"/>
+      <c r="U105"/>
+      <c r="V105"/>
+      <c r="W105"/>
+      <c r="X105"/>
+      <c r="Y105"/>
+      <c r="Z105"/>
+      <c r="AA105"/>
+      <c r="AB105"/>
+      <c r="AC105"/>
+      <c r="AD105"/>
+      <c r="AE105"/>
+      <c r="AF105"/>
+    </row>
+    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A106" s="7"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+      <c r="P106"/>
+      <c r="Q106"/>
+      <c r="R106"/>
+      <c r="S106"/>
+      <c r="T106"/>
+      <c r="U106"/>
+      <c r="V106"/>
+      <c r="W106"/>
+      <c r="X106"/>
+      <c r="Y106"/>
+      <c r="Z106"/>
+      <c r="AA106"/>
+      <c r="AB106"/>
+      <c r="AC106"/>
+      <c r="AD106"/>
+      <c r="AE106"/>
+      <c r="AF106"/>
+    </row>
+    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A107" s="7"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107"/>
+      <c r="Q107"/>
+      <c r="R107"/>
+      <c r="S107"/>
+      <c r="T107"/>
+      <c r="U107"/>
+      <c r="V107"/>
+      <c r="W107"/>
+      <c r="X107"/>
+      <c r="Y107"/>
+      <c r="Z107"/>
+      <c r="AA107"/>
+      <c r="AB107"/>
+      <c r="AC107"/>
+      <c r="AD107"/>
+      <c r="AE107"/>
+      <c r="AF107"/>
+    </row>
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A108" s="7"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+      <c r="Q108"/>
+      <c r="R108"/>
+      <c r="S108"/>
+      <c r="T108"/>
+      <c r="U108"/>
+      <c r="V108"/>
+      <c r="W108"/>
+      <c r="X108"/>
+      <c r="Y108"/>
+      <c r="Z108"/>
+      <c r="AA108"/>
+      <c r="AB108"/>
+      <c r="AC108"/>
+      <c r="AD108"/>
+      <c r="AE108"/>
+      <c r="AF108"/>
+    </row>
+    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A109" s="7"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+      <c r="Q109"/>
+      <c r="R109"/>
+      <c r="S109"/>
+      <c r="T109"/>
+      <c r="U109"/>
+      <c r="V109"/>
+      <c r="W109"/>
+      <c r="X109"/>
+      <c r="Y109"/>
+      <c r="Z109"/>
+      <c r="AA109"/>
+      <c r="AB109"/>
+      <c r="AC109"/>
+      <c r="AD109"/>
+      <c r="AE109"/>
+      <c r="AF109"/>
+    </row>
+    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A110" s="7"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+      <c r="Q110"/>
+      <c r="R110"/>
+      <c r="S110"/>
+      <c r="T110"/>
+      <c r="U110"/>
+      <c r="V110"/>
+      <c r="W110"/>
+      <c r="X110"/>
+      <c r="Y110"/>
+      <c r="Z110"/>
+      <c r="AA110"/>
+      <c r="AB110"/>
+      <c r="AC110"/>
+      <c r="AD110"/>
+      <c r="AE110"/>
+      <c r="AF110"/>
+    </row>
+    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A111" s="7"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
+      <c r="R111"/>
+      <c r="S111"/>
+      <c r="T111"/>
+      <c r="U111"/>
+      <c r="V111"/>
+      <c r="W111"/>
+      <c r="X111"/>
+      <c r="Y111"/>
+      <c r="Z111"/>
+      <c r="AA111"/>
+      <c r="AB111"/>
+      <c r="AC111"/>
+      <c r="AD111"/>
+      <c r="AE111"/>
+      <c r="AF111"/>
+    </row>
+    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A112" s="7"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+      <c r="R112"/>
+      <c r="S112"/>
+      <c r="T112"/>
+      <c r="U112"/>
+      <c r="V112"/>
+      <c r="W112"/>
+      <c r="X112"/>
+      <c r="Y112"/>
+      <c r="Z112"/>
+      <c r="AA112"/>
+      <c r="AB112"/>
+      <c r="AC112"/>
+      <c r="AD112"/>
+      <c r="AE112"/>
+      <c r="AF112"/>
+    </row>
+    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A113" s="7"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113"/>
+      <c r="S113"/>
+      <c r="T113"/>
+      <c r="U113"/>
+      <c r="V113"/>
+      <c r="W113"/>
+      <c r="X113"/>
+      <c r="Y113"/>
+      <c r="Z113"/>
+      <c r="AA113"/>
+      <c r="AB113"/>
+      <c r="AC113"/>
+      <c r="AD113"/>
+      <c r="AE113"/>
+      <c r="AF113"/>
+    </row>
+    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A114" s="7"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114"/>
+      <c r="S114"/>
+      <c r="T114"/>
+      <c r="U114"/>
+      <c r="V114"/>
+      <c r="W114"/>
+      <c r="X114"/>
+      <c r="Y114"/>
+      <c r="Z114"/>
+      <c r="AA114"/>
+      <c r="AB114"/>
+      <c r="AC114"/>
+      <c r="AD114"/>
+      <c r="AE114"/>
+      <c r="AF114"/>
+    </row>
+    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A115" s="7"/>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115"/>
+      <c r="R115"/>
+      <c r="S115"/>
+      <c r="T115"/>
+      <c r="U115"/>
+      <c r="V115"/>
+      <c r="W115"/>
+      <c r="X115"/>
+      <c r="Y115"/>
+      <c r="Z115"/>
+      <c r="AA115"/>
+      <c r="AB115"/>
+      <c r="AC115"/>
+      <c r="AD115"/>
+      <c r="AE115"/>
+      <c r="AF115"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{EA86D07C-3AF7-48B2-8823-08A2D6D576E8}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{52BA8381-5519-4DAD-AFDB-EA9790FB254E}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{21D725C9-2D6E-4EE4-B863-E34A5732A1B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -673,7 +4421,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -685,7 +4433,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -697,7 +4445,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -709,7 +4457,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -721,7 +4469,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/excelData.xlsx
+++ b/TestData/excelData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samee\Work\Projects\Team14_Selenium_Samurai_LMS_Feb2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sumod\git\Team14_Selenium_Samurai_LMS_Feb2025\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF83A9A3-E797-468A-847D-3F775435A618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36A09F5-A532-4ECA-B118-177744B2D613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2198BB61-55EA-408D-B3CF-1475E78217FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{2198BB61-55EA-408D-B3CF-1475E78217FD}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>sdetnumpyninja@gmail.com</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>You are logged in</t>
+  </si>
+  <si>
+    <t>Programname</t>
+  </si>
+  <si>
+    <t>Programdescription</t>
+  </si>
+  <si>
+    <t>Automation Testing</t>
+  </si>
+  <si>
+    <t>CoreJavaProgrammingLeven</t>
   </si>
 </sst>
 </file>
@@ -485,20 +497,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C80ED2E-AA63-4AC9-BD7E-7D4B9BDB8A53}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.36328125" customWidth="1"/>
-    <col min="2" max="2" width="26.08984375" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -515,7 +527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -532,126 +544,126 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -673,7 +685,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -681,12 +693,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39044AD7-E24E-44ED-96F1-B34C34306CDC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -697,7 +733,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -709,7 +745,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -721,7 +757,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/excelData.xlsx
+++ b/TestData/excelData.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samee\Work\Projects\Team14_Selenium_Samurai_LMS_Feb2025\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF83A9A3-E797-468A-847D-3F775435A618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8EA168D3-9646-4E18-969A-50C8B723C776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2198BB61-55EA-408D-B3CF-1475E78217FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2198BB61-55EA-408D-B3CF-1475E78217FD}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -20,21 +15,11 @@
     <sheet name="ClassPage" sheetId="5" r:id="rId5"/>
     <sheet name="LogOutPage" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:P24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -486,19 +471,19 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.36328125" customWidth="1"/>
-    <col min="2" max="2" width="26.08984375" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -515,7 +500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -532,126 +517,126 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -673,7 +658,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -685,7 +670,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -697,7 +682,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -709,7 +694,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -721,7 +706,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/excelData.xlsx
+++ b/TestData/excelData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sumod\git\Team14_Selenium_Samurai_LMS_Feb2025\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB0435A-EDBC-4BBA-B40F-E2562023E904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCFDD98-37A1-470E-B973-81943E41D8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{2198BB61-55EA-408D-B3CF-1475E78217FD}"/>
   </bookViews>
@@ -112,13 +112,13 @@
     <t>Programdescription</t>
   </si>
   <si>
-    <t>CoreJavaProgrammingOne</t>
-  </si>
-  <si>
     <t>Automation Testing</t>
   </si>
   <si>
     <t>Active</t>
+  </si>
+  <si>
+    <t>CoreJavaProgrammingTwelve</t>
   </si>
 </sst>
 </file>
@@ -4446,7 +4446,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4468,13 +4468,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/excelData.xlsx
+++ b/TestData/excelData.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samee\Work\Projects\Team14_Selenium_Samurai_LMS_Feb2025\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E57F444-886A-4C64-95D8-95CA31406F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{43CB2B48-C9F7-40F6-8A6D-90522FA5524F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2198BB61-55EA-408D-B3CF-1475E78217FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2198BB61-55EA-408D-B3CF-1475E78217FD}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -20,21 +15,11 @@
     <sheet name="ClassPage" sheetId="5" r:id="rId5"/>
     <sheet name="LogOutPage" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:D15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -202,7 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -216,7 +201,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -558,18 +542,18 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="57.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="26.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="57.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="26.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -592,8 +576,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
@@ -615,7 +599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -636,7 +620,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -653,7 +637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -667,7 +651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -698,8 +682,8 @@
       <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
@@ -732,8 +716,8 @@
       <c r="AE7"/>
       <c r="AF7"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -766,8 +750,8 @@
       <c r="AE8"/>
       <c r="AF8"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -800,8 +784,8 @@
       <c r="AE9"/>
       <c r="AF9"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -834,8 +818,8 @@
       <c r="AE10"/>
       <c r="AF10"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -868,8 +852,8 @@
       <c r="AE11"/>
       <c r="AF11"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -902,8 +886,8 @@
       <c r="AE12"/>
       <c r="AF12"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -936,8 +920,8 @@
       <c r="AE13"/>
       <c r="AF13"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -970,8 +954,8 @@
       <c r="AE14"/>
       <c r="AF14"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -1004,8 +988,8 @@
       <c r="AE15"/>
       <c r="AF15"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -1038,8 +1022,8 @@
       <c r="AE16"/>
       <c r="AF16"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -1072,8 +1056,8 @@
       <c r="AE17"/>
       <c r="AF17"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -1106,8 +1090,8 @@
       <c r="AE18"/>
       <c r="AF18"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
@@ -1140,8 +1124,8 @@
       <c r="AE19"/>
       <c r="AF19"/>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -1174,8 +1158,8 @@
       <c r="AE20"/>
       <c r="AF20"/>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -1208,8 +1192,8 @@
       <c r="AE21"/>
       <c r="AF21"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -1242,8 +1226,8 @@
       <c r="AE22"/>
       <c r="AF22"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -1276,8 +1260,8 @@
       <c r="AE23"/>
       <c r="AF23"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -1310,8 +1294,8 @@
       <c r="AE24"/>
       <c r="AF24"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -1344,8 +1328,8 @@
       <c r="AE25"/>
       <c r="AF25"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -1378,8 +1362,8 @@
       <c r="AE26"/>
       <c r="AF26"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -1412,8 +1396,8 @@
       <c r="AE27"/>
       <c r="AF27"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -1446,8 +1430,8 @@
       <c r="AE28"/>
       <c r="AF28"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -1480,8 +1464,8 @@
       <c r="AE29"/>
       <c r="AF29"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -1514,8 +1498,8 @@
       <c r="AE30"/>
       <c r="AF30"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -1548,8 +1532,8 @@
       <c r="AE31"/>
       <c r="AF31"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -1582,8 +1566,8 @@
       <c r="AE32"/>
       <c r="AF32"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -1616,8 +1600,8 @@
       <c r="AE33"/>
       <c r="AF33"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
@@ -1650,8 +1634,8 @@
       <c r="AE34"/>
       <c r="AF34"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
@@ -1684,8 +1668,8 @@
       <c r="AE35"/>
       <c r="AF35"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
@@ -1718,8 +1702,8 @@
       <c r="AE36"/>
       <c r="AF36"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
@@ -1752,8 +1736,8 @@
       <c r="AE37"/>
       <c r="AF37"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
@@ -1786,8 +1770,8 @@
       <c r="AE38"/>
       <c r="AF38"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
@@ -1820,8 +1804,8 @@
       <c r="AE39"/>
       <c r="AF39"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
@@ -1854,8 +1838,8 @@
       <c r="AE40"/>
       <c r="AF40"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
@@ -1888,8 +1872,8 @@
       <c r="AE41"/>
       <c r="AF41"/>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -1922,8 +1906,8 @@
       <c r="AE42"/>
       <c r="AF42"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
@@ -1956,8 +1940,8 @@
       <c r="AE43"/>
       <c r="AF43"/>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
@@ -1990,8 +1974,8 @@
       <c r="AE44"/>
       <c r="AF44"/>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
@@ -2024,8 +2008,8 @@
       <c r="AE45"/>
       <c r="AF45"/>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
@@ -2058,8 +2042,8 @@
       <c r="AE46"/>
       <c r="AF46"/>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
@@ -2092,8 +2076,8 @@
       <c r="AE47"/>
       <c r="AF47"/>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
@@ -2126,8 +2110,8 @@
       <c r="AE48"/>
       <c r="AF48"/>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
@@ -2160,8 +2144,8 @@
       <c r="AE49"/>
       <c r="AF49"/>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
@@ -2194,8 +2178,8 @@
       <c r="AE50"/>
       <c r="AF50"/>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
@@ -2228,8 +2212,8 @@
       <c r="AE51"/>
       <c r="AF51"/>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
@@ -2262,8 +2246,8 @@
       <c r="AE52"/>
       <c r="AF52"/>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
@@ -2296,8 +2280,8 @@
       <c r="AE53"/>
       <c r="AF53"/>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
@@ -2330,8 +2314,8 @@
       <c r="AE54"/>
       <c r="AF54"/>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
@@ -2364,8 +2348,8 @@
       <c r="AE55"/>
       <c r="AF55"/>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
@@ -2398,8 +2382,8 @@
       <c r="AE56"/>
       <c r="AF56"/>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
@@ -2432,8 +2416,8 @@
       <c r="AE57"/>
       <c r="AF57"/>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
@@ -2466,8 +2450,8 @@
       <c r="AE58"/>
       <c r="AF58"/>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
@@ -2500,8 +2484,8 @@
       <c r="AE59"/>
       <c r="AF59"/>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
@@ -2534,8 +2518,8 @@
       <c r="AE60"/>
       <c r="AF60"/>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A61" s="7"/>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
@@ -2568,8 +2552,8 @@
       <c r="AE61"/>
       <c r="AF61"/>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
@@ -2602,8 +2586,8 @@
       <c r="AE62"/>
       <c r="AF62"/>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
@@ -2636,8 +2620,8 @@
       <c r="AE63"/>
       <c r="AF63"/>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
@@ -2670,8 +2654,8 @@
       <c r="AE64"/>
       <c r="AF64"/>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A65" s="7"/>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -2704,8 +2688,8 @@
       <c r="AE65"/>
       <c r="AF65"/>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
@@ -2738,8 +2722,8 @@
       <c r="AE66"/>
       <c r="AF66"/>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
@@ -2772,8 +2756,8 @@
       <c r="AE67"/>
       <c r="AF67"/>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
@@ -2806,8 +2790,8 @@
       <c r="AE68"/>
       <c r="AF68"/>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -2840,8 +2824,8 @@
       <c r="AE69"/>
       <c r="AF69"/>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A70" s="7"/>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -2874,8 +2858,8 @@
       <c r="AE70"/>
       <c r="AF70"/>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
@@ -2908,8 +2892,8 @@
       <c r="AE71"/>
       <c r="AF71"/>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
@@ -2942,8 +2926,8 @@
       <c r="AE72"/>
       <c r="AF72"/>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
@@ -2976,8 +2960,8 @@
       <c r="AE73"/>
       <c r="AF73"/>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A74" s="7"/>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
@@ -3010,8 +2994,8 @@
       <c r="AE74"/>
       <c r="AF74"/>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
@@ -3044,8 +3028,8 @@
       <c r="AE75"/>
       <c r="AF75"/>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
@@ -3078,8 +3062,8 @@
       <c r="AE76"/>
       <c r="AF76"/>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
@@ -3112,8 +3096,8 @@
       <c r="AE77"/>
       <c r="AF77"/>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A78" s="7"/>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
@@ -3146,8 +3130,8 @@
       <c r="AE78"/>
       <c r="AF78"/>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
@@ -3180,8 +3164,8 @@
       <c r="AE79"/>
       <c r="AF79"/>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
@@ -3214,8 +3198,8 @@
       <c r="AE80"/>
       <c r="AF80"/>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
@@ -3248,8 +3232,8 @@
       <c r="AE81"/>
       <c r="AF81"/>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
+    <row r="82" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
@@ -3282,8 +3266,8 @@
       <c r="AE82"/>
       <c r="AF82"/>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A83" s="7"/>
+    <row r="83" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
@@ -3316,8 +3300,8 @@
       <c r="AE83"/>
       <c r="AF83"/>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
@@ -3350,8 +3334,8 @@
       <c r="AE84"/>
       <c r="AF84"/>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
@@ -3384,8 +3368,8 @@
       <c r="AE85"/>
       <c r="AF85"/>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
@@ -3418,8 +3402,8 @@
       <c r="AE86"/>
       <c r="AF86"/>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A87" s="7"/>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
@@ -3452,8 +3436,8 @@
       <c r="AE87"/>
       <c r="AF87"/>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A88" s="7"/>
+    <row r="88" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
@@ -3486,8 +3470,8 @@
       <c r="AE88"/>
       <c r="AF88"/>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A89" s="7"/>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
@@ -3520,8 +3504,8 @@
       <c r="AE89"/>
       <c r="AF89"/>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A90" s="7"/>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
@@ -3554,8 +3538,8 @@
       <c r="AE90"/>
       <c r="AF90"/>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A91" s="7"/>
+    <row r="91" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
@@ -3588,8 +3572,8 @@
       <c r="AE91"/>
       <c r="AF91"/>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A92" s="7"/>
+    <row r="92" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
@@ -3622,8 +3606,8 @@
       <c r="AE92"/>
       <c r="AF92"/>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A93" s="7"/>
+    <row r="93" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
@@ -3656,8 +3640,8 @@
       <c r="AE93"/>
       <c r="AF93"/>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A94" s="7"/>
+    <row r="94" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
@@ -3690,8 +3674,8 @@
       <c r="AE94"/>
       <c r="AF94"/>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A95" s="7"/>
+    <row r="95" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
@@ -3724,8 +3708,8 @@
       <c r="AE95"/>
       <c r="AF95"/>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
+    <row r="96" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
@@ -3758,8 +3742,8 @@
       <c r="AE96"/>
       <c r="AF96"/>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A97" s="7"/>
+    <row r="97" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>
@@ -3792,8 +3776,8 @@
       <c r="AE97"/>
       <c r="AF97"/>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A98" s="7"/>
+    <row r="98" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
@@ -3826,8 +3810,8 @@
       <c r="AE98"/>
       <c r="AF98"/>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A99" s="7"/>
+    <row r="99" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
@@ -3860,8 +3844,8 @@
       <c r="AE99"/>
       <c r="AF99"/>
     </row>
-    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A100" s="7"/>
+    <row r="100" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
@@ -3894,8 +3878,8 @@
       <c r="AE100"/>
       <c r="AF100"/>
     </row>
-    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A101" s="7"/>
+    <row r="101" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
@@ -3928,8 +3912,8 @@
       <c r="AE101"/>
       <c r="AF101"/>
     </row>
-    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A102" s="7"/>
+    <row r="102" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
@@ -3962,8 +3946,8 @@
       <c r="AE102"/>
       <c r="AF102"/>
     </row>
-    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A103" s="7"/>
+    <row r="103" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
@@ -3996,8 +3980,8 @@
       <c r="AE103"/>
       <c r="AF103"/>
     </row>
-    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A104" s="7"/>
+    <row r="104" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104"/>
@@ -4030,8 +4014,8 @@
       <c r="AE104"/>
       <c r="AF104"/>
     </row>
-    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A105" s="7"/>
+    <row r="105" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
@@ -4064,8 +4048,8 @@
       <c r="AE105"/>
       <c r="AF105"/>
     </row>
-    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A106" s="7"/>
+    <row r="106" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
@@ -4098,8 +4082,8 @@
       <c r="AE106"/>
       <c r="AF106"/>
     </row>
-    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A107" s="7"/>
+    <row r="107" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
@@ -4132,8 +4116,8 @@
       <c r="AE107"/>
       <c r="AF107"/>
     </row>
-    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A108" s="7"/>
+    <row r="108" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
@@ -4166,8 +4150,8 @@
       <c r="AE108"/>
       <c r="AF108"/>
     </row>
-    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A109" s="7"/>
+    <row r="109" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109"/>
@@ -4200,8 +4184,8 @@
       <c r="AE109"/>
       <c r="AF109"/>
     </row>
-    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A110" s="7"/>
+    <row r="110" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
       <c r="D110"/>
@@ -4234,8 +4218,8 @@
       <c r="AE110"/>
       <c r="AF110"/>
     </row>
-    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A111" s="7"/>
+    <row r="111" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
@@ -4268,8 +4252,8 @@
       <c r="AE111"/>
       <c r="AF111"/>
     </row>
-    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A112" s="7"/>
+    <row r="112" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
@@ -4302,8 +4286,8 @@
       <c r="AE112"/>
       <c r="AF112"/>
     </row>
-    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A113" s="7"/>
+    <row r="113" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
       <c r="D113"/>
@@ -4336,8 +4320,8 @@
       <c r="AE113"/>
       <c r="AF113"/>
     </row>
-    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A114" s="7"/>
+    <row r="114" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
@@ -4370,8 +4354,8 @@
       <c r="AE114"/>
       <c r="AF114"/>
     </row>
-    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A115" s="7"/>
+    <row r="115" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
@@ -4421,7 +4405,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4433,7 +4417,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4445,7 +4429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4457,7 +4441,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4469,7 +4453,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
